--- a/wwwroot/Archives/Members/xlsx/MemberList202201.xlsx
+++ b/wwwroot/Archives/Members/xlsx/MemberList202201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos86\OBGpgm\wwwroot\SavedFiles\Members\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos86\OBGpgm\wwwroot\Archives\Members\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F19AF7-8D32-4BF6-B242-1EA122A70DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF54FFE-53AC-4C5C-8D26-33EFC4B0467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="120" windowWidth="18735" windowHeight="14460" activeTab="1" xr2:uid="{091825D1-7780-4AB4-9E45-DC543057D192}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9624" activeTab="1" xr2:uid="{F6684B66-469E-4AFE-B0BC-B9C46834A5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="2114">
   <si>
     <t>#</t>
   </si>
@@ -7034,7 +7033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC36FC1-5C5C-4D1F-B689-35F635C4F916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED04C66-6AC6-4F00-8F51-48196A5C2F03}">
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9079,7 +9078,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0.71" header="0.42" footer="0.39"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 Spring 2022 - Member List</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -9088,7 +9087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CF89E0-227E-47D4-95B6-4C24593C9399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C097AC-569E-427E-BD9D-BDB5F9360CBF}">
   <dimension ref="A1:G616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9443,25 +9442,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="38">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="28">
         <v>32159</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>14237</v>
       </c>
     </row>
@@ -9735,25 +9734,25 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="38">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="28">
         <v>32159</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <v>12259</v>
       </c>
     </row>
@@ -17231,25 +17230,25 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="20">
+      <c r="A384" s="38">
         <v>383</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="29" t="s">
         <v>1427</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="29" t="s">
         <v>1428</v>
       </c>
-      <c r="D384" s="10" t="s">
+      <c r="D384" s="30" t="s">
         <v>1429</v>
       </c>
-      <c r="E384" s="10" t="s">
+      <c r="E384" s="30" t="s">
         <v>1430</v>
       </c>
-      <c r="F384" s="8">
+      <c r="F384" s="28">
         <v>32159</v>
       </c>
-      <c r="G384" s="35">
+      <c r="G384" s="34">
         <v>10568</v>
       </c>
     </row>
@@ -17994,25 +17993,25 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="20">
+      <c r="A421" s="38">
         <v>420</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="29" t="s">
         <v>1524</v>
       </c>
-      <c r="C421" s="9" t="s">
+      <c r="C421" s="29" t="s">
         <v>1525</v>
       </c>
-      <c r="D421" s="10" t="s">
+      <c r="D421" s="30" t="s">
         <v>1526</v>
       </c>
-      <c r="E421" s="10" t="s">
+      <c r="E421" s="30" t="s">
         <v>1527</v>
       </c>
-      <c r="F421" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G421" s="35">
+      <c r="F421" s="28">
+        <v>32162</v>
+      </c>
+      <c r="G421" s="34">
         <v>13744</v>
       </c>
     </row>
@@ -20907,25 +20906,25 @@
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="20">
+      <c r="A558" s="38">
         <v>557</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="29" t="s">
         <v>1938</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C558" s="29" t="s">
         <v>1939</v>
       </c>
-      <c r="D558" s="10" t="s">
+      <c r="D558" s="30" t="s">
         <v>1940</v>
       </c>
-      <c r="E558" s="10" t="s">
+      <c r="E558" s="30" t="s">
         <v>1941</v>
       </c>
-      <c r="F558" s="8">
+      <c r="F558" s="28">
         <v>32159</v>
       </c>
-      <c r="G558" s="35">
+      <c r="G558" s="34">
         <v>13243</v>
       </c>
     </row>
@@ -22126,7 +22125,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0.71" header="0.42" footer="0.39"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 Member List - Since Summer 2004</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -22135,8 +22134,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFBDBDB-662A-4F36-A630-C18552F267E3}">
-  <dimension ref="A1:G113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF470F0-2BFB-4545-A961-193A6BB6D577}">
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22269,45 +22268,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8">
         <v>32159</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="G6" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G7" s="17">
-        <v>13</v>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G7" s="18">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -22315,45 +22314,45 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G8" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="8">
         <v>32159</v>
       </c>
-      <c r="G8" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G9" s="18">
-        <v>14</v>
+      <c r="G9" s="17">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -22361,22 +22360,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F10" s="8">
         <v>32162</v>
       </c>
       <c r="G10" s="17">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -22384,22 +22381,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8">
         <v>32159</v>
       </c>
       <c r="G11" s="17">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -22407,20 +22404,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G12" s="17">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -22428,22 +22427,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>501</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="F13" s="8">
         <v>32159</v>
       </c>
-      <c r="G13" s="17">
-        <v>22</v>
+      <c r="G13" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -22451,22 +22450,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>520</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>60</v>
+        <v>521</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>522</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>523</v>
       </c>
       <c r="F14" s="8">
         <v>32159</v>
       </c>
-      <c r="G14" s="17">
-        <v>12</v>
+      <c r="G14" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -22474,19 +22473,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="F15" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>2093</v>
@@ -22497,19 +22496,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="F16" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>2093</v>
@@ -22520,16 +22519,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="F17" s="8">
         <v>32162</v>
@@ -22543,45 +22542,45 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>558</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>559</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>560</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>561</v>
+        <v>70</v>
       </c>
       <c r="F18" s="8">
         <v>32162</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="G18" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="F19" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>2093</v>
+      <c r="B19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G19" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -22589,45 +22588,45 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F20" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G20" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G21" s="18">
-        <v>21</v>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G21" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -22635,44 +22634,44 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>681</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>76</v>
+        <v>682</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>78</v>
+        <v>683</v>
       </c>
       <c r="F22" s="8">
         <v>32159</v>
       </c>
-      <c r="G22" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="G22" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="B23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="11">
+        <v>32159</v>
+      </c>
+      <c r="G23" s="18">
         <v>3</v>
       </c>
     </row>
@@ -22681,45 +22680,45 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>9</v>
+        <v>686</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F24" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="F25" s="8">
         <v>32159</v>
       </c>
-      <c r="G25" s="18">
-        <v>3</v>
+      <c r="G25" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -22727,19 +22726,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>684</v>
+        <v>725</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>686</v>
+        <v>508</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="F26" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>2093</v>
@@ -22750,16 +22749,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="F27" s="8">
         <v>32159</v>
@@ -22773,19 +22772,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>508</v>
+        <v>751</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="F28" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>2093</v>
@@ -22796,22 +22795,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>734</v>
+        <v>87</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>735</v>
+        <v>88</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>736</v>
+        <v>89</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>737</v>
+        <v>90</v>
       </c>
       <c r="F29" s="8">
         <v>32159</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>2093</v>
+      <c r="G29" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22819,22 +22818,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>749</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>750</v>
+        <v>96</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>751</v>
+        <v>97</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>752</v>
+        <v>98</v>
       </c>
       <c r="F30" s="8">
         <v>32162</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>2093</v>
+      <c r="G30" s="17">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -22842,45 +22841,45 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>87</v>
+        <v>798</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>88</v>
+        <v>799</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>89</v>
+        <v>800</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>90</v>
+        <v>801</v>
       </c>
       <c r="F31" s="8">
         <v>32159</v>
       </c>
-      <c r="G31" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="G31" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G32" s="17">
-        <v>11</v>
+      <c r="B32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="11">
+        <v>32159</v>
+      </c>
+      <c r="G32" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -22888,45 +22887,45 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>798</v>
+        <v>107</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>799</v>
+        <v>108</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>800</v>
+        <v>109</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>801</v>
+        <v>110</v>
       </c>
       <c r="F33" s="8">
         <v>32159</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="G33" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="8">
         <v>32159</v>
       </c>
-      <c r="G34" s="18">
-        <v>20</v>
+      <c r="G34" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -22934,22 +22933,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F35" s="8">
         <v>32159</v>
       </c>
       <c r="G35" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -22957,22 +22956,18 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>867</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>112</v>
+        <v>868</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G36" s="17">
-        <v>7</v>
+        <v>869</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -22980,22 +22975,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>123</v>
+        <v>885</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>124</v>
+        <v>886</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>125</v>
+        <v>887</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>126</v>
+        <v>888</v>
       </c>
       <c r="F37" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G37" s="17">
-        <v>10</v>
+        <v>32162</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -23003,18 +22998,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>867</v>
+        <v>131</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>868</v>
+        <v>132</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="17" t="s">
-        <v>2093</v>
+        <v>133</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G38" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -23022,19 +23021,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="F39" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>2093</v>
@@ -23045,22 +23044,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>131</v>
+        <v>929</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>132</v>
+        <v>930</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>133</v>
+        <v>931</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>134</v>
+        <v>932</v>
       </c>
       <c r="F40" s="8">
         <v>32162</v>
       </c>
-      <c r="G40" s="17">
-        <v>21</v>
+      <c r="G40" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -23068,22 +23067,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>921</v>
+        <v>135</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>922</v>
+        <v>136</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>923</v>
+        <v>137</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>924</v>
+        <v>138</v>
       </c>
       <c r="F41" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>2093</v>
+        <v>32162</v>
+      </c>
+      <c r="G41" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -23091,22 +23090,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>929</v>
+        <v>139</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>930</v>
+        <v>140</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>931</v>
+        <v>141</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>932</v>
+        <v>142</v>
       </c>
       <c r="F42" s="8">
         <v>32162</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>2093</v>
+      <c r="G42" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -23114,22 +23113,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F43" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G43" s="17">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -23137,22 +23136,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>139</v>
+        <v>991</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>140</v>
+        <v>992</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>141</v>
+        <v>993</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>142</v>
+        <v>994</v>
       </c>
       <c r="F44" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G44" s="17">
-        <v>5</v>
+        <v>32159</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -23160,22 +23159,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>143</v>
+        <v>1003</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>144</v>
+        <v>1004</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>145</v>
+        <v>1005</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>146</v>
+        <v>1006</v>
       </c>
       <c r="F45" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G45" s="17">
-        <v>17</v>
+        <v>32162</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -23183,45 +23182,45 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>991</v>
+        <v>1029</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>992</v>
+        <v>1030</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>994</v>
+        <v>1032</v>
       </c>
       <c r="F46" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F47" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>2093</v>
+      <c r="B47" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="11">
+        <v>32159</v>
+      </c>
+      <c r="G47" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -23229,16 +23228,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1029</v>
+        <v>1083</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1030</v>
+        <v>1084</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>1031</v>
+        <v>1085</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>1032</v>
+        <v>1086</v>
       </c>
       <c r="F48" s="8">
         <v>32162</v>
@@ -23247,136 +23246,136 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="B49" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G50" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G51" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G53" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="11">
         <v>32159</v>
       </c>
-      <c r="G49" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F50" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G52" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
-        <v>52</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G53" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G54" s="17">
-        <v>1</v>
+      <c r="G54" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -23384,22 +23383,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>177</v>
+        <v>1184</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>178</v>
+        <v>1185</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>179</v>
+        <v>1186</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>180</v>
+        <v>1187</v>
       </c>
       <c r="F55" s="8">
         <v>32162</v>
       </c>
-      <c r="G55" s="17">
-        <v>8</v>
+      <c r="G55" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -23407,22 +23406,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F56" s="11">
         <v>32159</v>
       </c>
       <c r="G56" s="18">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -23430,45 +23429,45 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1184</v>
+        <v>189</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1185</v>
+        <v>190</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>1186</v>
+        <v>191</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>1187</v>
+        <v>192</v>
       </c>
       <c r="F57" s="8">
         <v>32162</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F58" s="8">
+        <v>32159</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>2093</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
-        <v>57</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="11">
-        <v>32159</v>
-      </c>
-      <c r="G58" s="18">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -23476,22 +23475,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F59" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G59" s="17">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -23499,22 +23498,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1276</v>
+        <v>197</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1277</v>
+        <v>198</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>1278</v>
+        <v>200</v>
       </c>
       <c r="F60" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>2093</v>
+        <v>32162</v>
+      </c>
+      <c r="G60" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -23522,22 +23521,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>193</v>
+        <v>1319</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>195</v>
-      </c>
+        <v>1320</v>
+      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="10" t="s">
-        <v>196</v>
+        <v>1321</v>
       </c>
       <c r="F61" s="8">
         <v>32159</v>
       </c>
-      <c r="G61" s="17">
-        <v>12</v>
+      <c r="G61" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -23545,112 +23542,112 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>197</v>
+        <v>1329</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>198</v>
+        <v>1330</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>199</v>
+        <v>1331</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>200</v>
+        <v>1332</v>
       </c>
       <c r="F62" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G62" s="17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+        <v>32159</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F63" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="B63" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G63" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F64" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="B64" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G64" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F65" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G65" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="B65" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F65" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G65" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G66" s="18">
-        <v>8</v>
+      <c r="B66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -23658,22 +23655,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>228</v>
+        <v>1413</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>229</v>
+        <v>1414</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>230</v>
+        <v>1415</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>231</v>
+        <v>1416</v>
       </c>
       <c r="F67" s="8">
         <v>32162</v>
       </c>
-      <c r="G67" s="17">
-        <v>4</v>
+      <c r="G67" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -23681,20 +23678,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>232</v>
+        <v>1433</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>233</v>
+        <v>1434</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>234</v>
+        <v>1435</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="17">
-        <v>7</v>
+        <v>1436</v>
+      </c>
+      <c r="F68" s="8">
+        <v>32163</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -23702,22 +23701,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1413</v>
+        <v>236</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1414</v>
+        <v>237</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1415</v>
+        <v>238</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>1416</v>
+        <v>239</v>
       </c>
       <c r="F69" s="8">
         <v>32162</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>2093</v>
+      <c r="G69" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -23725,22 +23724,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1433</v>
+        <v>240</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1434</v>
+        <v>241</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1435</v>
+        <v>242</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1436</v>
+        <v>243</v>
       </c>
       <c r="F70" s="8">
-        <v>32163</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>2093</v>
+        <v>32159</v>
+      </c>
+      <c r="G70" s="17">
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -23748,22 +23747,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F71" s="8">
         <v>32162</v>
       </c>
       <c r="G71" s="17">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -23771,22 +23770,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F72" s="8">
         <v>32159</v>
       </c>
       <c r="G72" s="17">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -23794,22 +23793,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F73" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G73" s="17">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -23817,22 +23816,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>248</v>
+        <v>1489</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>249</v>
+        <v>1490</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>250</v>
+        <v>1491</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>251</v>
+        <v>1492</v>
       </c>
       <c r="F74" s="8">
         <v>32159</v>
       </c>
-      <c r="G74" s="17">
-        <v>17</v>
+      <c r="G74" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -23840,22 +23839,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>252</v>
+        <v>1532</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>253</v>
+        <v>1533</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>254</v>
+        <v>1534</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>255</v>
+        <v>1535</v>
       </c>
       <c r="F75" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G75" s="17">
-        <v>2</v>
+        <v>32162</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -23863,45 +23862,45 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1489</v>
+        <v>1540</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1490</v>
+        <v>1541</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>1491</v>
+        <v>1542</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1492</v>
+        <v>1543</v>
       </c>
       <c r="F76" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F77" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>2093</v>
+      <c r="B77" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="11">
+        <v>32159</v>
+      </c>
+      <c r="G77" s="18">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -23909,45 +23908,45 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1540</v>
+        <v>1571</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1541</v>
+        <v>1572</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>1543</v>
+        <v>1574</v>
       </c>
       <c r="F78" s="8">
-        <v>32162</v>
+        <v>32526</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="11">
+      <c r="B79" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F79" s="8">
         <v>32159</v>
       </c>
-      <c r="G79" s="18">
-        <v>7</v>
+      <c r="G79" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -23955,22 +23954,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1571</v>
+        <v>264</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1572</v>
+        <v>265</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1573</v>
+        <v>266</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>1574</v>
+        <v>267</v>
       </c>
       <c r="F80" s="8">
-        <v>32526</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>2093</v>
+        <v>32159</v>
+      </c>
+      <c r="G80" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -23978,22 +23977,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1575</v>
+        <v>268</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1576</v>
+        <v>269</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>1577</v>
+        <v>270</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>1578</v>
+        <v>271</v>
       </c>
       <c r="F81" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>2093</v>
+        <v>32162</v>
+      </c>
+      <c r="G81" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -24001,22 +24000,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>264</v>
+        <v>1613</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>265</v>
+        <v>1614</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>266</v>
+        <v>1615</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>267</v>
+        <v>1616</v>
       </c>
       <c r="F82" s="8">
         <v>32159</v>
       </c>
-      <c r="G82" s="17">
-        <v>8</v>
+      <c r="G82" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -24024,22 +24023,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>268</v>
+        <v>1636</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>269</v>
+        <v>1637</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>270</v>
+        <v>1638</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>271</v>
+        <v>1639</v>
       </c>
       <c r="F83" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G83" s="17">
-        <v>2</v>
+        <v>32159</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -24047,45 +24046,45 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1613</v>
+        <v>272</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1614</v>
+        <v>273</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>1615</v>
+        <v>274</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>1616</v>
+        <v>275</v>
       </c>
       <c r="F84" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G84" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F85" s="11">
         <v>32159</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
-        <v>84</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F85" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>2093</v>
+      <c r="G85" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -24093,45 +24092,43 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>272</v>
+        <v>1701</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>274</v>
-      </c>
+        <v>1702</v>
+      </c>
+      <c r="D86" s="10"/>
       <c r="E86" s="10" t="s">
-        <v>275</v>
+        <v>1703</v>
       </c>
       <c r="F86" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G86" s="17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="21">
+        <v>32159</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="20">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="B87" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F87" s="8">
         <v>32159</v>
       </c>
-      <c r="G87" s="18">
-        <v>19</v>
+      <c r="G87" s="17">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -24139,14 +24136,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D88" s="10"/>
+        <v>1711</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>1712</v>
+      </c>
       <c r="E88" s="10" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="F88" s="8">
         <v>32159</v>
@@ -24155,27 +24154,27 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
+    <row r="89" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="B89" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F89" s="11">
         <v>32159</v>
       </c>
-      <c r="G89" s="17">
-        <v>11</v>
+      <c r="G89" s="18">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -24183,45 +24182,45 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1710</v>
+        <v>291</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1711</v>
+        <v>292</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>1712</v>
+        <v>293</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>1713</v>
+        <v>294</v>
       </c>
       <c r="F90" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G90" s="17" t="s">
+        <v>32162</v>
+      </c>
+      <c r="G90" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F91" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>2093</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
-        <v>90</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F91" s="11">
-        <v>32159</v>
-      </c>
-      <c r="G91" s="18">
-        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -24229,22 +24228,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F92" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G92" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -24252,22 +24251,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1812</v>
+        <v>299</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1813</v>
+        <v>300</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>1814</v>
+        <v>301</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>1815</v>
+        <v>302</v>
       </c>
       <c r="F93" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>2093</v>
+        <v>32159</v>
+      </c>
+      <c r="G93" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -24275,22 +24274,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>295</v>
+        <v>1875</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>297</v>
-      </c>
+        <v>1876</v>
+      </c>
+      <c r="D94" s="10"/>
       <c r="E94" s="10" t="s">
-        <v>298</v>
+        <v>1877</v>
       </c>
       <c r="F94" s="8">
         <v>32159</v>
       </c>
-      <c r="G94" s="17">
-        <v>9</v>
+      <c r="G94" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -24298,22 +24295,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>299</v>
+        <v>1884</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>300</v>
+        <v>1885</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>301</v>
+        <v>1886</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F95" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G95" s="17">
-        <v>4</v>
+        <v>1887</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="17" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -24321,17 +24316,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1875</v>
+        <v>1892</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D96" s="10"/>
+        <v>1893</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>1894</v>
+      </c>
       <c r="E96" s="10" t="s">
-        <v>1877</v>
+        <v>1895</v>
       </c>
       <c r="F96" s="8">
-        <v>32159</v>
+        <v>32162</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>2093</v>
@@ -24342,20 +24339,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1884</v>
+        <v>307</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1885</v>
+        <v>308</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>1886</v>
+        <v>309</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="17" t="s">
-        <v>2093</v>
+        <v>310</v>
+      </c>
+      <c r="F97" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G97" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -24363,19 +24362,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1893</v>
+        <v>1912</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>1894</v>
+        <v>1913</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="F98" s="8">
-        <v>32162</v>
+        <v>32159</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>2093</v>
@@ -24386,45 +24385,45 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>307</v>
+        <v>1917</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>308</v>
+        <v>1918</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>309</v>
+        <v>1919</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>310</v>
+        <v>1920</v>
       </c>
       <c r="F99" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G99" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+        <v>32159</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F100" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>2093</v>
+      <c r="B100" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G100" s="18">
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -24432,22 +24431,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1917</v>
+        <v>315</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>1918</v>
+        <v>316</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>1919</v>
+        <v>317</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>1920</v>
+        <v>318</v>
       </c>
       <c r="F101" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>2093</v>
+        <v>32162</v>
+      </c>
+      <c r="G101" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -24455,91 +24454,91 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F102" s="11">
         <v>32162</v>
       </c>
       <c r="G102" s="18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="21">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G103" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="21">
+      <c r="B103" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F103" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G103" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="20">
         <v>103</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F104" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G104" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="21">
+      <c r="B104" s="9" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F104" s="8">
+        <v>32162</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="20">
         <v>104</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F105" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G105" s="18">
-        <v>15</v>
+      <c r="B105" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F105" s="8">
+        <v>32159</v>
+      </c>
+      <c r="G105" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -24547,22 +24546,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1964</v>
+        <v>335</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1965</v>
+        <v>336</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>1966</v>
+        <v>337</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>1967</v>
+        <v>338</v>
       </c>
       <c r="F106" s="8">
         <v>32162</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>2093</v>
+      <c r="G106" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -24570,45 +24569,45 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>331</v>
+        <v>2022</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>332</v>
+        <v>2023</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>333</v>
+        <v>2024</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>334</v>
+        <v>2025</v>
       </c>
       <c r="F107" s="8">
-        <v>32159</v>
-      </c>
-      <c r="G107" s="17">
+        <v>32162</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="21">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" s="11">
+        <v>32162</v>
+      </c>
+      <c r="G108" s="18">
         <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F108" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G108" s="17">
-        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -24616,16 +24615,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>2022</v>
+        <v>2041</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>2023</v>
+        <v>2042</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>2024</v>
+        <v>2043</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>2025</v>
+        <v>2044</v>
       </c>
       <c r="F109" s="8">
         <v>32162</v>
@@ -24634,80 +24633,34 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="21">
+    <row r="110" spans="1:7" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22">
         <v>109</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F110" s="11">
-        <v>32162</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>110</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F111" s="8">
-        <v>32162</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="22">
-        <v>111</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D110" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E110" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="F112" s="14">
-        <v>32162</v>
-      </c>
-      <c r="G112" s="19">
+      <c r="F110" s="14">
+        <v>32162</v>
+      </c>
+      <c r="G110" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="113" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0.71" header="0.42" footer="0.39"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 Member List - 2022 - All Paid Members</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -24716,7 +24669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14E4B1-7E1C-489C-8FE4-0599EC9D974B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74CD5F2-A860-4166-A3AF-ED6E59D97C43}">
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26234,7 +26187,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0.71" header="0.42" footer="0.39"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 2022 - Members Email</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -26243,7 +26196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E09612-EF60-409B-86F9-C5ACB2BC7375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB5CC8D-2258-47F9-9720-C126BF9C5740}">
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26903,7 +26856,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0" header="0.42" footer="0.39"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 Spring 2022 - Member List</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -26912,7 +26865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99314162-44CC-4E39-8FAA-6F4D7C8C4FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCF5DAA-2E7B-4A5C-9290-577F39224D2F}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27557,7 +27510,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.85" bottom="0" header="0.42" footer="0.39"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;24 Spring 2022 - Member List</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
